--- a/biology/Botanique/Claude_Muller/Claude_Muller.xlsx
+++ b/biology/Botanique/Claude_Muller/Claude_Muller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Muller, né le 8 octobre 1954 à Haguenau, est un historien français, spécialiste de l'Alsace et de ses vins.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Muller est professeur d’histoire à Colmar et à Strasbourg. Docteur en histoire, lettres et théologie, il est un spécialiste reconnu de l’histoire de l’Alsace et particulièrement au XVIIIe siècle. Il a également rédigé plusieurs ouvrages sur l’histoire du vin. Il préside depuis 2008 l'Institut d'histoire d'Alsace à l'université de Strasbourg[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Muller est professeur d’histoire à Colmar et à Strasbourg. Docteur en histoire, lettres et théologie, il est un spécialiste reconnu de l’histoire de l’Alsace et particulièrement au XVIIIe siècle. Il a également rédigé plusieurs ouvrages sur l’histoire du vin. Il préside depuis 2008 l'Institut d'histoire d'Alsace à l'université de Strasbourg.
 En 2023, il est élu président de la Fédération des sociétés d'histoire et d'archéologie d'Alsace (FSHAA).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Recherches en cours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire religieuse
 Vin</t>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le siècle des Rohan : une dynastie de cardinaux en Alsace au XVIIIe siècle, La Nuée bleue, 2006, 446 p.  (ISBN 978-2716506526)
 Le beau jardin de la France : l'Alsace au XVIIIe siècle, Nancy, Place Stanislas, 2008
